--- a/data/trans_camb/P16B10-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Clase-trans_camb.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 0,0</t>
+          <t>-26,96; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 0,0</t>
+          <t>-13,22; 0,0</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 0,0</t>
+          <t>-26,96; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 0,0</t>
+          <t>-13,22; 0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,91</t>
+          <t>0,0; 7,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,82</t>
+          <t>0,0; 7,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,48</t>
+          <t>0,0; 24,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,52</t>
+          <t>0,0; 24,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,93</t>
+          <t>0,93; 8,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 8,22</t>
+          <t>0,81; 8,77</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,59</t>
+          <t>0,0; 8,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,48</t>
+          <t>0,0; 8,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,67</t>
+          <t>0,0; 32,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,75</t>
+          <t>0,0; 32,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,62</t>
+          <t>0,94; 9,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,96</t>
+          <t>0,82; 9,62</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,94</t>
+          <t>0,0; 26,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,74</t>
+          <t>0,0; 26,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,36</t>
+          <t>0,0; 19,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 11,38</t>
+          <t>-4,8; 12,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,91</t>
+          <t>0,0; 13,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 11,67</t>
+          <t>-1,18; 11,32</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,5</t>
+          <t>0,0; 37,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,56</t>
+          <t>0,0; 35,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,01</t>
+          <t>0,0; 24,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 12,71</t>
+          <t>-4,8; 14,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,82</t>
+          <t>0,0; 15,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 13,35</t>
+          <t>-1,2; 12,8</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,99</t>
+          <t>0,0; 10,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,36</t>
+          <t>0,0; 10,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,47</t>
+          <t>0,0; 8,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,75</t>
+          <t>0,0; 8,51</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,68</t>
+          <t>0,0; 11,48</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,12</t>
+          <t>0,0; 11,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,25</t>
+          <t>0,0; 9,13</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,58</t>
+          <t>0,0; 9,3</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,05</t>
+          <t>0,44; 4,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,43</t>
+          <t>0,44; 4,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,18; 8,1</t>
+          <t>1,22; 7,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,25</t>
+          <t>-0,52; 5,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,37</t>
+          <t>1,1; 4,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,93</t>
+          <t>0,18; 3,88</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,23</t>
+          <t>0,44; 4,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,63</t>
+          <t>0,44; 4,51</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,82</t>
+          <t>1,23; 7,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,73</t>
+          <t>-0,48; 6,29</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,57</t>
+          <t>1,11; 4,5</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,1</t>
+          <t>0,17; 4,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B10-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
